--- a/src/p1_2.xlsx
+++ b/src/p1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Desktop/apre/p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0032832-7BC0-4142-90B0-43E50B5DB86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC5A368-42B5-914D-938C-38BD28421E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17220" xr2:uid="{BAF366AE-65A4-5442-A973-4115D91DB0B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>y1</t>
   </si>
@@ -160,6 +160,12 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>Pearson(y1,y2)</t>
+  </si>
+  <si>
+    <t>Spearman(r1,r2)</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D6D52F-BFAF-EB40-8093-7439E7230391}">
-  <dimension ref="B3:M14"/>
+  <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="281" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="281" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +679,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="2">
         <v>0.2</v>
       </c>
       <c r="D4" s="2">
@@ -683,38 +689,41 @@
         <v>13</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <f>C4*D4</f>
+        <v>0.1</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <f>C4^2</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <f>D4^2</f>
+        <v>0.25</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K4" s="9">
         <f>I4*J4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="9">
         <f>I4*I4</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M4" s="9">
         <f>J4*J4</f>
-        <v>0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>0.1</v>
       </c>
       <c r="D5" s="2">
@@ -724,38 +733,41 @@
         <v>13</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <f t="shared" ref="F5:F13" si="0">C5*D5</f>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <f t="shared" ref="G5:G13" si="1">C5^2</f>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <f t="shared" ref="H5:H13" si="2">D5^2</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" ref="K5:K13" si="0">J5*I5</f>
-        <v>0</v>
+        <f t="shared" ref="K5:K13" si="3">J5*I5</f>
+        <v>54</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" ref="L5:L13" si="1">I5*I5</f>
-        <v>0</v>
+        <f t="shared" ref="L5:L13" si="4">I5*I5</f>
+        <v>36</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" ref="M5:M13" si="2">J5*J5</f>
-        <v>0</v>
+        <f t="shared" ref="M5:M13" si="5">J5*J5</f>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="2">
         <v>0.2</v>
       </c>
       <c r="D6" s="2">
@@ -765,38 +777,41 @@
         <v>13</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>42.25</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="2">
         <v>0.9</v>
       </c>
       <c r="D7" s="2">
@@ -806,38 +821,41 @@
         <v>14</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.64000000000000012</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="2">
         <v>-0.3</v>
       </c>
       <c r="D8" s="2">
@@ -847,38 +865,41 @@
         <v>14</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.09</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.09</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.09</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>42.5</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>72.25</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="2">
         <v>-0.1</v>
       </c>
       <c r="D9" s="2">
@@ -888,38 +909,41 @@
         <v>14</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="2">
         <v>-0.9</v>
       </c>
       <c r="D10" s="2">
@@ -929,38 +953,41 @@
         <v>15</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.81</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>42.25</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="2">
         <v>0.2</v>
       </c>
       <c r="D11" s="2">
@@ -970,38 +997,41 @@
         <v>15</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6.25</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="2">
         <v>0.7</v>
       </c>
       <c r="D12" s="2">
@@ -1011,38 +1041,41 @@
         <v>15</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.48999999999999994</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.48999999999999994</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.48999999999999994</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="2">
         <v>-0.3</v>
       </c>
       <c r="D13" s="2">
@@ -1052,71 +1085,105 @@
         <v>15</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.12</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.09</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.16000000000000003</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>72.25</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="7">
-        <v>0</v>
+        <f>SUM(C4:C13)</f>
+        <v>0.69999999999999973</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <f>SUM(D4:D13)</f>
+        <v>1.0000000000000004</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7">
-        <v>0</v>
+        <f>SUM(F4:F13)</f>
+        <v>0.27000000000000018</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <f>SUM(G4:G13)</f>
+        <v>2.4299999999999997</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <f>SUM(H4:H13)</f>
+        <v>2.1</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <f>SUM(I4:I13)</f>
+        <v>55</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <f>SUM(J4:J13)</f>
+        <v>55</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" ref="F14:M14" si="3">SUM(K4:K13)</f>
-        <v>0</v>
+        <f t="shared" ref="K14:M14" si="6">SUM(K4:K13)</f>
+        <v>318.5</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>382.5</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="2">
+        <f>(F14-((C14*D14)/10))/SQRT((G14-(C14^2/10))*(H14-(D14^2/10)))</f>
+        <v>9.1650597397725395E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="2">
+        <f>(K14-((I14*J14)/10))/SQRT((L14-(I14^2/10))*(M14-(J14^2/10)))</f>
+        <v>0.19815096184722797</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
